--- a/stock_historical_data/60m/GRAVITA-BL.NS.xlsx
+++ b/stock_historical_data/60m/GRAVITA-BL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45680.55208333334</v>
+        <v>45680.32291666666</v>
       </c>
       <c r="B2" t="n">
         <v>2111.10009765625</v>
@@ -548,10 +548,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -559,13 +559,57 @@
       <c r="M2" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2111.10009765625</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2111.10009765625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2111.10009765625</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2111.10009765625</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
+      <c r="G3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>0</v>
       </c>
     </row>
